--- a/me-docs/22.Xay-dung-chuc-nang-Quan-ly-bai-viet.xlsx
+++ b/me-docs/22.Xay-dung-chuc-nang-Quan-ly-bai-viet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3D83FE-66DB-473E-B371-6824D2E623FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF044C61-481B-46C5-BD5A-262F4CB90303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clone article" sheetId="1" r:id="rId1"/>
+    <sheet name="selectbox category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>resources\views\admin\elements\sidebar_menu.blade.php</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>app\Models\CategoryModel.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\ArticleController.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\article\form.blade.php</t>
   </si>
 </sst>
 </file>
@@ -587,6 +597,275 @@
         <a:xfrm>
           <a:off x="609601" y="36004500"/>
           <a:ext cx="11049000" cy="5424810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55848</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84ECB642-ED63-4AD4-AF11-08259D17BF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10419048" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227581</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2101F46E-C263-477A-B021-C87575E223E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="8152381" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>541495</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59FCB5C-02CD-4FEE-9307-BEC677FF011C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="4190999"/>
+          <a:ext cx="6637495" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312990</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D89438-6E98-4C95-A657-66D73736BC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="10676190" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>189181</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DDE375-7A81-4E58-B5D0-1B677C2E2E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="10552381" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493943</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>113500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFAA61F-0AF6-45C7-B96E-A7C825128634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="10857143" cy="6400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,4 +1202,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92FEFE-51CE-4674-98AE-9AEB57267ACD}">
+  <dimension ref="A2:A71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/22.Xay-dung-chuc-nang-Quan-ly-bai-viet.xlsx
+++ b/me-docs/22.Xay-dung-chuc-nang-Quan-ly-bai-viet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF044C61-481B-46C5-BD5A-262F4CB90303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFD3F7F-E57E-4D9A-AFBA-A4C4C1C1E72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clone article" sheetId="1" r:id="rId1"/>
     <sheet name="selectbox category" sheetId="2" r:id="rId2"/>
+    <sheet name="show category" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>resources\views\admin\elements\sidebar_menu.blade.php</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>resources\views\admin\pages\article\form.blade.php</t>
+  </si>
+  <si>
+    <t>views\admin\pages\article\list.blade.php</t>
   </si>
 </sst>
 </file>
@@ -866,6 +870,187 @@
         <a:xfrm>
           <a:off x="609600" y="13525500"/>
           <a:ext cx="10857143" cy="6400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236647</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9E9690-9BDD-410C-8B27-4655634A19FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11819047" cy="6047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27124</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D4089C-694F-4F09-9580-995CC2497D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="11609524" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17676</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E2598B-BA74-4913-B664-4FBEBE973BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="10990476" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>177909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A7355C-9096-42B3-B4B0-83F05B56D90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14287500"/>
+          <a:ext cx="11534775" cy="6083409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A189"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
@@ -1208,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92FEFE-51CE-4674-98AE-9AEB57267ACD}">
   <dimension ref="A2:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
@@ -1243,4 +1428,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4019E502-86DD-48B5-B79A-F8A93137891D}">
+  <dimension ref="A2:A75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>